--- a/ExampleIG/output/observations-summary.xlsx
+++ b/ExampleIG/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,30 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>no-basis-Observation-Bodytemp</t>
+  </si>
+  <si>
+    <t>No Basis Observation - Body Temperature</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#276885007, null#8310-5</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
@@ -178,7 +202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +243,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExampleIG/output/observations-summary.xlsx
+++ b/ExampleIG/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Profile</t>
   </si>
@@ -45,30 +45,6 @@
   </si>
   <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>no-basis-Observation-Bodytemp</t>
-  </si>
-  <si>
-    <t>No Basis Observation - Body Temperature</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>null#276885007, null#8310-5</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>optional</t>
   </si>
 </sst>
 </file>
@@ -202,7 +178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -243,41 +219,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExampleIG/output/observations-summary.xlsx
+++ b/ExampleIG/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,39 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>NoVitalSignsObservationBloodpressure</t>
+  </si>
+  <si>
+    <t>NO VitalSigns Observation - Blood Pressure</t>
+  </si>
+  <si>
+    <t>null#vital-signs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#85354-9, null#75367002</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6, SNOMED CT#271649006</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4, SNOMED CT#271650006</t>
   </si>
 </sst>
 </file>
@@ -178,7 +211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +252,111 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExampleIG/output/observations-summary.xlsx
+++ b/ExampleIG/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Profile</t>
   </si>
@@ -47,28 +47,40 @@
     <t>Method</t>
   </si>
   <si>
+    <t>NoVitalSignsObservationBodyHeight</t>
+  </si>
+  <si>
+    <t>No VitalSigns Observation - Body Height</t>
+  </si>
+  <si>
+    <t>null#vital-signs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#8302-2, null#50373000</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
     <t>NoVitalSignsObservationBloodpressure</t>
   </si>
   <si>
-    <t>NO VitalSigns Observation - Blood Pressure</t>
-  </si>
-  <si>
-    <t>null#vital-signs</t>
-  </si>
-  <si>
-    <t/>
+    <t>No VitalSigns Observation - Blood Pressure</t>
   </si>
   <si>
     <t>null#85354-9, null#75367002</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
   </si>
   <si>
     <t>Quantityĵ</t>
@@ -211,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -275,10 +287,10 @@
         <v>17</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>14</v>
@@ -289,37 +301,37 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="I3" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="J3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -327,7 +339,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>14</v>
@@ -345,16 +357,51 @@
         <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="I4" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="J4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>21</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/observations-summary.xlsx
+++ b/ExampleIG/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Profile</t>
   </si>
@@ -68,7 +68,7 @@
     <t>dateTimeĵ, Periodĵ</t>
   </si>
   <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+    <t>Quantityĵ</t>
   </si>
   <si>
     <t>optional</t>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>null#85354-9, null#75367002</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
   </si>
   <si>
     <t>LOINC#8480-6, SNOMED CT#271649006</t>
@@ -357,7 +354,7 @@
         <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>19</v>
@@ -366,7 +363,7 @@
         <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -392,7 +389,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>19</v>
@@ -401,7 +398,7 @@
         <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/observations-summary.xlsx
+++ b/ExampleIG/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Profile</t>
   </si>
@@ -68,19 +68,22 @@
     <t>dateTimeĵ, Periodĵ</t>
   </si>
   <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>NoVitalSignsObservationBloodpressure</t>
+  </si>
+  <si>
+    <t>No VitalSigns Observation - Blood Pressure</t>
+  </si>
+  <si>
+    <t>null#85354-9, null#75367002</t>
+  </si>
+  <si>
     <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>NoVitalSignsObservationBloodpressure</t>
-  </si>
-  <si>
-    <t>No VitalSigns Observation - Blood Pressure</t>
-  </si>
-  <si>
-    <t>null#85354-9, null#75367002</t>
   </si>
   <si>
     <t>LOINC#8480-6, SNOMED CT#271649006</t>
@@ -354,7 +357,7 @@
         <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>19</v>
@@ -363,7 +366,7 @@
         <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -389,7 +392,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>19</v>
@@ -398,7 +401,7 @@
         <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/observations-summary.xlsx
+++ b/ExampleIG/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>Profile</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>LOINC#8462-4, SNOMED CT#271650006</t>
+  </si>
+  <si>
+    <t>NoVitalSignsObservationBodyTemp</t>
+  </si>
+  <si>
+    <t>NO VitalSigns Observation - Body Temperature</t>
+  </si>
+  <si>
+    <t>null#8310-5, null#276885007</t>
   </si>
 </sst>
 </file>
@@ -220,7 +229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -401,6 +410,41 @@
         <v>24</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExampleIG/output/observations-summary.xlsx
+++ b/ExampleIG/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>Profile</t>
   </si>
@@ -47,48 +47,48 @@
     <t>Method</t>
   </si>
   <si>
+    <t>NoVitalSignsObservationBloodpressure</t>
+  </si>
+  <si>
+    <t>No VitalSigns Observation - Blood Pressure</t>
+  </si>
+  <si>
+    <t>null#vital-signs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#85354-9, null#75367002</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6, SNOMED CT#271649006</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4, SNOMED CT#271650006</t>
+  </si>
+  <si>
     <t>NoVitalSignsObservationBodyHeight</t>
   </si>
   <si>
     <t>No VitalSigns Observation - Body Height</t>
   </si>
   <si>
-    <t>null#vital-signs</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>null#8302-2, null#50373000</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>NoVitalSignsObservationBloodpressure</t>
-  </si>
-  <si>
-    <t>No VitalSigns Observation - Blood Pressure</t>
-  </si>
-  <si>
-    <t>null#85354-9, null#75367002</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6, SNOMED CT#271649006</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4, SNOMED CT#271650006</t>
-  </si>
-  <si>
     <t>NoVitalSignsObservationBodyTemp</t>
   </si>
   <si>
@@ -96,6 +96,51 @@
   </si>
   <si>
     <t>null#8310-5, null#276885007</t>
+  </si>
+  <si>
+    <t>NoVitalSignsObservationBodyWeight</t>
+  </si>
+  <si>
+    <t>Norwegian basis profile for VitalSigns Observation - Body Weight</t>
+  </si>
+  <si>
+    <t>null#29463-7, null#27113001</t>
+  </si>
+  <si>
+    <t>NoVitalSignsObservationHeartRate</t>
+  </si>
+  <si>
+    <t>Norwegian base profile for VitalSigns Observation - Heart Rate</t>
+  </si>
+  <si>
+    <t>null#8867-4, null#364075005</t>
+  </si>
+  <si>
+    <t>NoVitalSignsObservationOxygenSaturation</t>
+  </si>
+  <si>
+    <t>Norwegian base profile for VitalSigns Observation - Oxygen Saturation</t>
+  </si>
+  <si>
+    <t>null#2708-6, null#431314004</t>
+  </si>
+  <si>
+    <t>NoVitalSignsObservationPulse</t>
+  </si>
+  <si>
+    <t>Norwegian base profile for VitalSigns Observation - Pulse</t>
+  </si>
+  <si>
+    <t>null#8867-4, null#78564009</t>
+  </si>
+  <si>
+    <t>NoVitalSignsObservationRespirationRate</t>
+  </si>
+  <si>
+    <t>Norwegian base profiles for VitalSigns Observation - Respiration Rate</t>
+  </si>
+  <si>
+    <t>null#9279-1, null#271625008</t>
   </si>
 </sst>
 </file>
@@ -229,7 +274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -293,10 +338,10 @@
         <v>17</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>14</v>
@@ -307,37 +352,37 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -345,69 +390,69 @@
         <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -433,15 +478,190 @@
         <v>17</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/ExampleIG/output/observations-summary.xlsx
+++ b/ExampleIG/output/observations-summary.xlsx
@@ -50,7 +50,7 @@
     <t>NoVitalSignsObservationBloodpressure</t>
   </si>
   <si>
-    <t>No VitalSigns Observation - Blood Pressure</t>
+    <t>Norwegian base profile for VitalSigns Observation - Blood Pressure</t>
   </si>
   <si>
     <t>null#vital-signs</t>
@@ -83,7 +83,7 @@
     <t>NoVitalSignsObservationBodyHeight</t>
   </si>
   <si>
-    <t>No VitalSigns Observation - Body Height</t>
+    <t>Norwegian base profile for VitalSigns Observation - Body Height</t>
   </si>
   <si>
     <t>null#8302-2, null#50373000</t>
@@ -92,7 +92,7 @@
     <t>NoVitalSignsObservationBodyTemp</t>
   </si>
   <si>
-    <t>NO VitalSigns Observation - Body Temperature</t>
+    <t>Norwegian base profile for VitalSigns Observation - Body Temperature</t>
   </si>
   <si>
     <t>null#8310-5, null#276885007</t>
@@ -101,7 +101,7 @@
     <t>NoVitalSignsObservationBodyWeight</t>
   </si>
   <si>
-    <t>Norwegian basis profile for VitalSigns Observation - Body Weight</t>
+    <t>Norwegian base profile for VitalSigns Observation - Body Weight</t>
   </si>
   <si>
     <t>null#29463-7, null#27113001</t>
